--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/E/Angle/result1_csv/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/E/Angle/result1_csv/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teachinglab\Desktop\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\E\Angle\result1_csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F4D45C-E796-41D4-9CD3-C2F5D72AB15E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B1CDCCB-B70A-460C-A5B8-64EE5E730147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{6DCA9BA8-A756-42BE-A88B-BC9B344AD087}"/>
+    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{E98BD02D-B053-4363-9647-5DF1C917EB28}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51612FD9-F6B1-44A4-8E4E-4DD63E45DCFC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73F44D8A-737E-498F-AC0C-B650E71A846F}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/E/Angle/result1_csv/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/E/Angle/result1_csv/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teachinglab\Desktop\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\E\Angle\result1_csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B1CDCCB-B70A-460C-A5B8-64EE5E730147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F17DE275-F41E-43A1-9079-7DB752D1D123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{E98BD02D-B053-4363-9647-5DF1C917EB28}"/>
+    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{12685561-237E-46F3-AEBF-5749F6009FB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73F44D8A-737E-498F-AC0C-B650E71A846F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8BC4C87-1D58-4656-953C-3C4F7EAC0ADA}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
